--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H2">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J2">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.39635754973626</v>
+        <v>14.39487933333333</v>
       </c>
       <c r="N2">
-        <v>5.39635754973626</v>
+        <v>43.184638</v>
       </c>
       <c r="O2">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959761</v>
       </c>
       <c r="P2">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959762</v>
       </c>
       <c r="Q2">
-        <v>5.751322085355168</v>
+        <v>18.80517766518689</v>
       </c>
       <c r="R2">
-        <v>5.751322085355168</v>
+        <v>169.246598986682</v>
       </c>
       <c r="S2">
-        <v>0.165013404439548</v>
+        <v>0.2781343854058222</v>
       </c>
       <c r="T2">
-        <v>0.165013404439548</v>
+        <v>0.2781343854058222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H3">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J3">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.4908338205051</v>
+        <v>5.526052333333333</v>
       </c>
       <c r="N3">
-        <v>5.4908338205051</v>
+        <v>16.578157</v>
       </c>
       <c r="O3">
-        <v>0.4639263615527912</v>
+        <v>0.264622264871545</v>
       </c>
       <c r="P3">
-        <v>0.4639263615527912</v>
+        <v>0.2646222648715451</v>
       </c>
       <c r="Q3">
-        <v>5.852012867536823</v>
+        <v>7.219122405202556</v>
       </c>
       <c r="R3">
-        <v>5.852012867536823</v>
+        <v>64.97210164682301</v>
       </c>
       <c r="S3">
-        <v>0.1679023625811523</v>
+        <v>0.1067730499062243</v>
       </c>
       <c r="T3">
-        <v>0.1679023625811523</v>
+        <v>0.1067730499062243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06577854272022</v>
+        <v>1.306379666666667</v>
       </c>
       <c r="H4">
-        <v>1.06577854272022</v>
+        <v>3.919139</v>
       </c>
       <c r="I4">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874173</v>
       </c>
       <c r="J4">
-        <v>0.3619159773960083</v>
+        <v>0.4034923136874172</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.948380555714578</v>
+        <v>0.9618626666666668</v>
       </c>
       <c r="N4">
-        <v>0.948380555714578</v>
+        <v>2.885588</v>
       </c>
       <c r="O4">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="P4">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="Q4">
-        <v>1.010763646613675</v>
+        <v>1.256557829859111</v>
       </c>
       <c r="R4">
-        <v>1.010763646613675</v>
+        <v>11.309020468732</v>
       </c>
       <c r="S4">
-        <v>0.02900021037530796</v>
+        <v>0.01858487837537079</v>
       </c>
       <c r="T4">
-        <v>0.02900021037530796</v>
+        <v>0.01858487837537079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H5">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J5">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.39635754973626</v>
+        <v>14.39487933333333</v>
       </c>
       <c r="N5">
-        <v>5.39635754973626</v>
+        <v>43.184638</v>
       </c>
       <c r="O5">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959761</v>
       </c>
       <c r="P5">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959762</v>
       </c>
       <c r="Q5">
-        <v>5.566547073410609</v>
+        <v>15.43940056751866</v>
       </c>
       <c r="R5">
-        <v>5.566547073410609</v>
+        <v>138.954605107668</v>
       </c>
       <c r="S5">
-        <v>0.1597119531690708</v>
+        <v>0.2283535026542611</v>
       </c>
       <c r="T5">
-        <v>0.1597119531690708</v>
+        <v>0.2283535026542611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H6">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J6">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.4908338205051</v>
+        <v>5.526052333333333</v>
       </c>
       <c r="N6">
-        <v>5.4908338205051</v>
+        <v>16.578157</v>
       </c>
       <c r="O6">
-        <v>0.4639263615527912</v>
+        <v>0.264622264871545</v>
       </c>
       <c r="P6">
-        <v>0.4639263615527912</v>
+        <v>0.2646222648715451</v>
       </c>
       <c r="Q6">
-        <v>5.664002922788257</v>
+        <v>5.927033742744666</v>
       </c>
       <c r="R6">
-        <v>5.664002922788257</v>
+        <v>53.34330368470199</v>
       </c>
       <c r="S6">
-        <v>0.1625080966035174</v>
+        <v>0.087662659543476</v>
       </c>
       <c r="T6">
-        <v>0.1625080966035174</v>
+        <v>0.08766265954347605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.03153785161672</v>
+        <v>1.072562</v>
       </c>
       <c r="H7">
-        <v>1.03153785161672</v>
+        <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="J7">
-        <v>0.3502885588557468</v>
+        <v>0.3312746929515923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.948380555714578</v>
+        <v>0.9618626666666668</v>
       </c>
       <c r="N7">
-        <v>0.948380555714578</v>
+        <v>2.885588</v>
       </c>
       <c r="O7">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="P7">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="Q7">
-        <v>0.9782904409568868</v>
+        <v>1.031657345485333</v>
       </c>
       <c r="R7">
-        <v>0.9782904409568868</v>
+        <v>9.284916109368</v>
       </c>
       <c r="S7">
-        <v>0.02806850908315865</v>
+        <v>0.0152585307538552</v>
       </c>
       <c r="T7">
-        <v>0.02806850908315865</v>
+        <v>0.01525853075385521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H8">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I8">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J8">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.39635754973626</v>
+        <v>14.39487933333333</v>
       </c>
       <c r="N8">
-        <v>5.39635754973626</v>
+        <v>43.184638</v>
       </c>
       <c r="O8">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959761</v>
       </c>
       <c r="P8">
-        <v>0.4559439614322149</v>
+        <v>0.6893176795959762</v>
       </c>
       <c r="Q8">
-        <v>4.573449391843754</v>
+        <v>12.36145867870667</v>
       </c>
       <c r="R8">
-        <v>4.573449391843754</v>
+        <v>111.25312810836</v>
       </c>
       <c r="S8">
-        <v>0.1312186038235961</v>
+        <v>0.1828297915358928</v>
       </c>
       <c r="T8">
-        <v>0.1312186038235961</v>
+        <v>0.1828297915358928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H9">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I9">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J9">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.4908338205051</v>
+        <v>5.526052333333333</v>
       </c>
       <c r="N9">
-        <v>5.4908338205051</v>
+        <v>16.578157</v>
       </c>
       <c r="O9">
-        <v>0.4639263615527912</v>
+        <v>0.264622264871545</v>
       </c>
       <c r="P9">
-        <v>0.4639263615527912</v>
+        <v>0.2646222648715451</v>
       </c>
       <c r="Q9">
-        <v>4.653518668037755</v>
+        <v>4.745442180726667</v>
       </c>
       <c r="R9">
-        <v>4.653518668037755</v>
+        <v>42.70897962654001</v>
       </c>
       <c r="S9">
-        <v>0.1335159023681214</v>
+        <v>0.07018655542184472</v>
       </c>
       <c r="T9">
-        <v>0.1335159023681214</v>
+        <v>0.07018655542184474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.847506739442659</v>
+        <v>0.8587400000000001</v>
       </c>
       <c r="H10">
-        <v>0.847506739442659</v>
+        <v>2.57622</v>
       </c>
       <c r="I10">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="J10">
-        <v>0.2877954637482447</v>
+        <v>0.2652329933609903</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.948380555714578</v>
+        <v>0.9618626666666668</v>
       </c>
       <c r="N10">
-        <v>0.948380555714578</v>
+        <v>2.885588</v>
       </c>
       <c r="O10">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="P10">
-        <v>0.08012967701499384</v>
+        <v>0.04606005553247879</v>
       </c>
       <c r="Q10">
-        <v>0.803758912524479</v>
+        <v>0.8259899463733335</v>
       </c>
       <c r="R10">
-        <v>0.803758912524479</v>
+        <v>7.433909517360001</v>
       </c>
       <c r="S10">
-        <v>0.02306095755652721</v>
+        <v>0.01221664640325279</v>
       </c>
       <c r="T10">
-        <v>0.02306095755652721</v>
+        <v>0.01221664640325279</v>
       </c>
     </row>
   </sheetData>
